--- a/data/trans_dic/P1426-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02051666985567479</v>
+        <v>0.01900593433738586</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02211636191491718</v>
+        <v>0.02118508251728935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08751277047120803</v>
+        <v>0.08757032302642978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02391147193610231</v>
+        <v>0.02352169166732342</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0246550183520765</v>
+        <v>0.0259047055012874</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1069545002061571</v>
+        <v>0.1072791687986261</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02577964245764738</v>
+        <v>0.02525185246990204</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0267788880534437</v>
+        <v>0.02652050910371425</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1045522801019435</v>
+        <v>0.1037080041570337</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0453515016608325</v>
+        <v>0.04284296525648407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04584163934850121</v>
+        <v>0.04610064639332138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.128903260957093</v>
+        <v>0.1310256812604682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04356931984815354</v>
+        <v>0.04428875807663125</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04981337177792426</v>
+        <v>0.05046608321175006</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1398969787463688</v>
+        <v>0.1413295910861199</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04162832790855053</v>
+        <v>0.04046700086672824</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04374469212889223</v>
+        <v>0.04354990597957037</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1312645621652979</v>
+        <v>0.1309792915841498</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.01157705217034571</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02932792151892375</v>
+        <v>0.02932792151892376</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005541824700538252</v>
+        <v>0.005737331066013428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005941488599413549</v>
+        <v>0.006140655750957603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02788727030956065</v>
+        <v>0.02777498664011796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004454920788837639</v>
+        <v>0.004816039416762118</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009154965257883944</v>
+        <v>0.009045363887744727</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01981998741945155</v>
+        <v>0.01945366631430692</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006019132778075731</v>
+        <v>0.005987206708228161</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008440678760694641</v>
+        <v>0.008578398578673064</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02520107710695014</v>
+        <v>0.02494452296978456</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01394191783142049</v>
+        <v>0.01444412490138334</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01498727065907712</v>
+        <v>0.01466832609469155</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04195477647025316</v>
+        <v>0.04199394587933306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0149164679101931</v>
+        <v>0.01406132412627578</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02011054661465355</v>
+        <v>0.02003510113774591</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0302066750041633</v>
+        <v>0.03039581149643943</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0124531625642353</v>
+        <v>0.01270021257724577</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01524828608217158</v>
+        <v>0.01561993498108917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03416718432510602</v>
+        <v>0.03361665888035559</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.01524794973436781</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.02735791798429642</v>
+        <v>0.02735791798429641</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01208565541594917</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0</v>
+        <v>0.002204522961607759</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001972786752367325</v>
+        <v>0.002169720176643279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02413978016603059</v>
+        <v>0.0249434966701069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006484727031739516</v>
+        <v>0.004660184719074861</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006254907526197924</v>
+        <v>0.006821513104678845</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01940659280972093</v>
+        <v>0.01835419911140683</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005641788321004905</v>
+        <v>0.005645645526130584</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005992416486725011</v>
+        <v>0.006188303688308086</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02449830652261842</v>
+        <v>0.02438179862761177</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02876170761385225</v>
+        <v>0.03078058977759007</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02162805562352695</v>
+        <v>0.02147641197448696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05025572821456485</v>
+        <v>0.05077381999898135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02973661208286806</v>
+        <v>0.02755320284624259</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03044359401356999</v>
+        <v>0.03106001065316074</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03808962843168741</v>
+        <v>0.03716503101476545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02318613813146213</v>
+        <v>0.0221181187376047</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02154860326103121</v>
+        <v>0.02165088521088792</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04148111634340493</v>
+        <v>0.03967395283143321</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.01739188707302907</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.04657554023192866</v>
+        <v>0.04657554023192865</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01125429648105697</v>
+        <v>0.01120671429043012</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01093155488088127</v>
+        <v>0.01127899902174878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04097233252660339</v>
+        <v>0.04078882478629667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01425993622990211</v>
+        <v>0.01408009441123456</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01557784298746195</v>
+        <v>0.01537878720733126</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04111949963150264</v>
+        <v>0.04154639025385074</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01409091484298901</v>
+        <v>0.01401807832275519</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01430678711024174</v>
+        <v>0.01448305080736262</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04263909626948303</v>
+        <v>0.04217361960153496</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02015928497574704</v>
+        <v>0.02024467837805946</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01891701460999006</v>
+        <v>0.01905793593998526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05287292900449483</v>
+        <v>0.05358320806427759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0232496831524558</v>
+        <v>0.02387019215821451</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02529551642137012</v>
+        <v>0.02548975941307124</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.052013556194524</v>
+        <v>0.05192217355798824</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02046838408707913</v>
+        <v>0.02073034206786414</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02067623098440538</v>
+        <v>0.02092957658052918</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05066913294710348</v>
+        <v>0.05096170113782227</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19996</v>
+        <v>18524</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16683</v>
+        <v>15981</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50542</v>
+        <v>50576</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31989</v>
+        <v>31467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24523</v>
+        <v>25766</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87778</v>
+        <v>88044</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59614</v>
+        <v>58393</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46836</v>
+        <v>46385</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>146189</v>
+        <v>145009</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44202</v>
+        <v>41757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34581</v>
+        <v>34776</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>74447</v>
+        <v>75673</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58287</v>
+        <v>59249</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49547</v>
+        <v>50197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>114813</v>
+        <v>115989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>96263</v>
+        <v>93578</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>76510</v>
+        <v>76169</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>183540</v>
+        <v>183141</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10884</v>
+        <v>11268</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12337</v>
+        <v>12750</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>62148</v>
+        <v>61897</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7817</v>
+        <v>8450</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18203</v>
+        <v>17985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42983</v>
+        <v>42189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22382</v>
+        <v>22264</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34309</v>
+        <v>34868</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110815</v>
+        <v>109687</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27381</v>
+        <v>28368</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31119</v>
+        <v>30457</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93497</v>
+        <v>93585</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26172</v>
+        <v>24672</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39986</v>
+        <v>39836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>65509</v>
+        <v>65919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46308</v>
+        <v>47226</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>61979</v>
+        <v>63490</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>150241</v>
+        <v>147820</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1079</v>
+        <v>1187</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17178</v>
+        <v>17749</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2974</v>
+        <v>2137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3435</v>
+        <v>3746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14245</v>
+        <v>13473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5302</v>
+        <v>5306</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6568</v>
+        <v>6783</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35415</v>
+        <v>35247</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13840</v>
+        <v>14811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11828</v>
+        <v>11745</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35761</v>
+        <v>36130</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13638</v>
+        <v>12637</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16718</v>
+        <v>17056</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27959</v>
+        <v>27281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21791</v>
+        <v>20787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23618</v>
+        <v>23730</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59966</v>
+        <v>57354</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38487</v>
+        <v>38325</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36923</v>
+        <v>38096</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>144127</v>
+        <v>143481</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50637</v>
+        <v>49999</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55022</v>
+        <v>54319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>153105</v>
+        <v>154695</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>98225</v>
+        <v>97717</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>98856</v>
+        <v>100074</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>308753</v>
+        <v>305383</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68940</v>
+        <v>69232</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>63894</v>
+        <v>64370</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>185989</v>
+        <v>188487</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82560</v>
+        <v>84764</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89346</v>
+        <v>90032</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>193669</v>
+        <v>193328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>142681</v>
+        <v>144507</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>142867</v>
+        <v>144617</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>366900</v>
+        <v>369018</v>
       </c>
     </row>
     <row r="20">
